--- a/ApolloQA/Data/RatingManual/SC/VA00059.FleetSize_SizeTypeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00059.FleetSize_SizeTypeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.FleetSize_SizeTypeFactors" sheetId="1" r:id="Rc87d6d80af3a48dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.FleetSize_SizeTypeFactors" sheetId="1" r:id="R07ad3b18df0f4747"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1141,6 +1141,26 @@
         <x:v>All Other</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>10,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0299</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -2228,6 +2248,26 @@
       </x:c>
       <x:c t="str">
         <x:v>1.0817</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0135</x:v>
       </x:c>
     </x:row>
     <x:row>
